--- a/db/AiCity-55-CountyActivity.xlsx
+++ b/db/AiCity-55-CountyActivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D33CF6-445B-BE47-A796-BFDA9211B83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D941F09-D392-6345-B0A0-121A2DACA22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24140" yWindow="5140" windowWidth="38040" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="12120" yWindow="5140" windowWidth="38040" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -571,76 +571,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="112">
+    <row r="2" spans="1:7" ht="192">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="176">
+    <row r="3" spans="1:7" ht="112">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="192">
+    <row r="4" spans="1:7" ht="176">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G4">
+    <sortCondition descending="1" ref="C1:C4"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-55-CountyActivity.xlsx
+++ b/db/AiCity-55-CountyActivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D941F09-D392-6345-B0A0-121A2DACA22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADCED78-A252-3B4D-B668-AFACE0FBD9B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="5140" windowWidth="38040" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="10860" yWindow="9920" windowWidth="38040" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,42 @@
   </si>
   <si>
     <t>2020養生村健走活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年03月 06日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年03月07日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福音第1100306號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長庚醫護社區戶外兒童排正式開張</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;主題: 長庚醫護社區戶外兒童排正式開張！&lt;/li&gt;
+&lt;li&gt;時間: 3/7(日)下午4:00至5:00正式開張，(15:30長庚國小大門集合預備)&lt;/li&gt;
+&lt;li&gt;地點：長庚國小大門旁兒童遊戲區&lt;/li&gt;
+&lt;li&gt;內容:16:00~16:40 播放兒童主題歌(神造你和我)
+   &lt;ul&gt;
+     &lt;li&gt;主題詩歌帶動唱: 本韻 、信吉 (神造你和我)&lt;/li&gt;
+     &lt;li&gt; 說故事: 心園 (第一課︰殷勤的螞蟻)&lt;/li&gt;
+     &lt;li&gt;蓋章、發獎品: 芳德、思賢&lt;/li&gt;
+     &lt;li&gt; 活動: 信吉&lt;/li&gt;
+  &lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,13 +564,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C091220D-5AB3-1349-AE3A-DD8EF169D2ED}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -571,78 +607,101 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="192">
+    <row r="2" spans="1:7" ht="208">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="112">
+    <row r="3" spans="1:7" ht="192">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="176">
+    <row r="4" spans="1:7" ht="112">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="176">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G4">
-    <sortCondition descending="1" ref="C1:C4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G5">
+    <sortCondition descending="1" ref="C1:C5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/AiCity-55-CountyActivity.xlsx
+++ b/db/AiCity-55-CountyActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADCED78-A252-3B4D-B668-AFACE0FBD9B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1475B34E-E6D3-F244-BCE5-5B21FEF29569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10860" yWindow="9920" windowWidth="38040" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
@@ -177,12 +177,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>長庚醫護社區戶外兒童排正式開張</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;ol&gt;
-&lt;li&gt;主題: 長庚醫護社區戶外兒童排正式開張！&lt;/li&gt;
+&lt;li&gt;主題: 3/7日 長庚醫護社區戶外兒童排正式開張！&lt;/li&gt;
 &lt;li&gt;時間: 3/7(日)下午4:00至5:00正式開張，(15:30長庚國小大門集合預備)&lt;/li&gt;
 &lt;li&gt;地點：長庚國小大門旁兒童遊戲區&lt;/li&gt;
 &lt;li&gt;內容:16:00~16:40 播放兒童主題歌(神造你和我)
@@ -194,6 +190,10 @@
   &lt;/ul&gt;
 &lt;/li&gt;
 &lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7 日 長庚醫護社區戶外兒童排正式開張</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,13 +621,13 @@
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="192">
